--- a/result.xlsx
+++ b/result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,39 +435,69 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>01111</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>10010</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>11101</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>011x</t>
+          <t>01101</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>00011</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>00110</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>00000</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>01111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,12 +509,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>10010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10x1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,7 +526,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>11101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,7 +536,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1x01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -518,12 +548,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011x</t>
+          <t>01101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>011x1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -533,7 +563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01x1</t>
+          <t>x1101</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -545,17 +575,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10x0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100x</t>
+          <t>10x10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -577,7 +607,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -592,12 +622,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>010x</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01x0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -606,6 +636,333 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0x111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00x11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11x01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x0010</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0001x</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00110</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>x0110</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>001x0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0011x</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>00x10</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>00x00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>000x0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -622,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,59 +995,79 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>0001x</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>100x</t>
+          <t>000x0</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>x0110</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1x01</t>
+          <t>x0010</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>01x1</t>
+          <t>x1101</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10x1</t>
+          <t>0011x</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>011x</t>
+          <t>0x111</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>010x</t>
+          <t>11x01</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>01x0</t>
+          <t>00x10</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>10x0</t>
+          <t>00x00</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>00x11</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>011x1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>10x10</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>001x0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>0001x</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -702,12 +1079,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100x</t>
+          <t>000x0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10xx</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,7 +1096,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>x0110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -741,7 +1118,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1x01</t>
+          <t>x0010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -756,7 +1133,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>x0x10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -768,7 +1145,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01x1</t>
+          <t>x1101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -800,12 +1177,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10x1</t>
+          <t>0011x</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>00x1x</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -837,7 +1214,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>011x</t>
+          <t>0x111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -879,7 +1256,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>010x</t>
+          <t>11x01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -914,7 +1291,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>01xx</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -926,7 +1303,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01x0</t>
+          <t>00x10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -951,7 +1328,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>01xx</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -978,7 +1355,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10x0</t>
+          <t>00x00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1008,7 +1385,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10xx</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1023,10 +1400,288 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>00xx0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00x11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>00x1x</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>011x1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10x10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>x0x10</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>001x0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>00xx0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1043,7 +1698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,19 +1714,24 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>10xx</t>
+          <t>00xx0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>01xx</t>
+          <t>x0x10</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>00x1x</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10xx</t>
+          <t>00xx0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1083,7 +1743,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01xx</t>
+          <t>x0x10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1092,6 +1752,28 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>00x1x</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1108,7 +1790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,29 +1806,44 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>10xx</t>
+          <t>0x111</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>01xx</t>
+          <t>00xx0</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>x1101</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1x01</t>
+          <t>00x1x</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>011x1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>x0x10</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>11x01</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10xx</t>
+          <t>0x111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1156,19 +1853,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">01xx
+          <t xml:space="preserve">00xx0
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">x101
+          <t xml:space="preserve">x1101
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1101
+          <t xml:space="preserve">0001x
+00x10
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01101
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">x0x10
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11x01
 </t>
         </is>
       </c>
@@ -1176,12 +1892,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01xx</t>
+          <t>00xx0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10xx
+          <t xml:space="preserve">0x111
 </t>
         </is>
       </c>
@@ -1192,13 +1908,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1101
+          <t xml:space="preserve">x1101
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1101
+          <t xml:space="preserve">00011
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01101
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10x10
+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11x01
 </t>
         </is>
       </c>
@@ -1206,19 +1940,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>x1101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10xx
+          <t xml:space="preserve">0x111
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">01x0
-011x
+          <t xml:space="preserve">00xx0
 </t>
         </is>
       </c>
@@ -1227,30 +1960,178 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00011
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10x10
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11001
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1x01</t>
+          <t>00x1x</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">101x
-10x0
+          <t xml:space="preserve">01111
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">01x0
-011x
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t xml:space="preserve">00x00
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">x1101
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10x10
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>011x1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00x00
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11101
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00011
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10x10
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x0x10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00x00
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11101
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00011
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11x01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00x00
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00011
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10x10
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1267,7 +2148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,29 +2164,44 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>10010</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>01101</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>00000</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>11001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1315,7 +2211,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1324,6 +2220,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1332,12 +2243,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01x0</t>
+          <t>10x10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1347,10 +2258,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1359,17 +2285,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10x0</t>
+          <t>00x00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1379,14 +2305,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>00000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011x</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1405,6 +2346,21 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1421,7 +2377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,59 +2393,170 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>10010</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>101x</t>
+          <t>01101</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>00000</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10xx</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>00xx0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10010
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01101
+</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0100
+          <t xml:space="preserve">10110
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">x101
-</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11001
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01xx</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>x0x10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01101
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1101
-</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11001
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11x01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01101
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1504,7 +2571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,31 +2587,55 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>01101</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x101</t>
+          <t>00x1x</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1x01</t>
+          <t>0x111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>011x1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01101</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>x1101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01101</t>
         </is>
       </c>
     </row>
